--- a/OrangeHRMApplication/src/main/java/com/OrangeHRMApplicationTestDataFile/OHRMAddEmployeeData.xlsx
+++ b/OrangeHRMApplication/src/main/java/com/OrangeHRMApplicationTestDataFile/OHRMAddEmployeeData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\eclipse-workspace\OrangeHRMApplication\src\main\java\com\OrangeHRMApplicationTestDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\eclipse-workspace\eclipse-workspace\OrangeHRMApplication\src\main\java\com\OrangeHRMApplicationTestDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B108E-92DE-42CE-93CD-CF9EE4316108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E33498-B5AA-4650-87F2-293E9E859015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CFC72748-C13B-4B5D-94DA-F2F8AA54C5D0}"/>
   </bookViews>
@@ -131,13 +131,13 @@
     <t>Puli996632@</t>
   </si>
   <si>
-    <t>puli1234@</t>
-  </si>
-  <si>
     <t>raju</t>
   </si>
   <si>
-    <t>puli12345@</t>
+    <t>Puli996632</t>
+  </si>
+  <si>
+    <t>RAJU</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,9 +225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -581,7 +578,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +722,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -756,43 +753,43 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="G4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>33</v>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B45FCC33-1E8D-4F33-B4A7-D93D1BAD72B3}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{0D135E1E-4CB1-4EA5-B6F8-571169D4F2C2}"/>
+    <hyperlink ref="H3" r:id="rId2" display="puli1234@" xr:uid="{0D135E1E-4CB1-4EA5-B6F8-571169D4F2C2}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{0F69337D-4E15-4307-B7A4-E128E0D38AB8}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{FCEEB33F-05FD-462C-BE86-2951E9645D5E}"/>
+    <hyperlink ref="H5" r:id="rId4" display="puli12345@" xr:uid="{FCEEB33F-05FD-462C-BE86-2951E9645D5E}"/>
     <hyperlink ref="H6" r:id="rId5" xr:uid="{23DC7796-E9F1-43C5-9DF0-17311D809013}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
